--- a/mbkm.xlsx
+++ b/mbkm.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\PA2\pa2_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE3BAC9-5D8D-4777-8103-174837C71834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BCCD7D-5FB8-4BD0-BDAF-F37ED70A52AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulir tanpa judul (Jawaban) " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -908,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,29 +1064,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
